--- a/doc/formal_language.xlsx
+++ b/doc/formal_language.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA84C081-62F0-44A8-A33C-F814DF5DBD4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D18018C-ADCC-4538-81A5-93642B05355E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="359">
   <si>
     <t>Literal templates</t>
   </si>
@@ -1401,14 +1401,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Perimeter(Shape($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Area(Shape($))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1429,10 +1421,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>基本属性(Attribution)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点到直线的距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1453,7 +1441,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>属性(BasicAttribution)</t>
+    <t>n点共圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本属性(BasicAttribution)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性(Attribution)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弧长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArcLength(Arc(AB))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area(Polygon($))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perimeter(Polygon($))</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1721,9 +1733,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1792,6 +1801,9 @@
     </xf>
     <xf numFmtId="11" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2073,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="95.5" defaultRowHeight="20.25" x14ac:dyDescent="0.2"/>
@@ -2090,884 +2102,899 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="46" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="25" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="25">
         <v>2</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26">
+      <c r="A4" s="25">
         <v>3</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>77</v>
+      <c r="E4" s="25" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30">
+      <c r="A5" s="29">
         <v>1</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="29">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="29">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="E8" s="30"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="30">
+      <c r="A9" s="29">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="E9" s="29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
+        <v>6</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D10" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="E9" s="30" t="s">
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="27">
+        <v>1</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="27">
+        <v>2</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
+        <v>3</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="27">
+        <v>4</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="27"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="31">
+        <v>1</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="33"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="31">
+        <v>2</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="31">
+        <v>3</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="33"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="31">
+        <v>4</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="31">
+        <v>5</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="34">
+        <v>1</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>322</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="34">
+        <v>2</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
+      <c r="C21" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="E21" s="34"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="37">
+        <v>1</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="37">
+        <v>2</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="38"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="37">
+        <v>3</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="37">
+        <v>4</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="37">
+        <v>5</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="37">
         <v>6</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>345</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="28">
+      <c r="B27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="37">
+        <v>7</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="37">
+        <v>8</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="37"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="37">
+        <v>9</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="38"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="37">
+        <v>10</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="37"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="37">
+        <v>11</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="37">
+        <v>12</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="37">
+        <v>13</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="37">
+        <v>14</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="37">
+        <v>15</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="37"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="37">
+        <v>16</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="37">
+        <v>17</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="37">
+        <v>18</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="39">
         <v>1</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
+      <c r="B40" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="39">
         <v>2</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B41" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="E41" s="39" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="39">
+        <v>3</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D42" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="39">
+        <v>4</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="39">
+        <v>5</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="39">
+        <v>6</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="39">
+        <v>7</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="39">
+        <v>8</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="39">
         <v>9</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="28">
+      <c r="B48" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D48" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="39">
+        <v>10</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="39">
+        <v>11</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D50" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="81" x14ac:dyDescent="0.2">
+      <c r="A51" s="39">
+        <v>12</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>338</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="43">
+        <v>1</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>338</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="43">
+        <v>2</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="43">
         <v>3</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="28">
+      <c r="B54" s="44" t="s">
+        <v>201</v>
+      </c>
+      <c r="C54" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="43">
         <v>4</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="32">
-        <v>1</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>152</v>
-      </c>
-      <c r="E15" s="34"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="32">
-        <v>2</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>353</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="E16" s="34"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="32">
-        <v>3</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="E17" s="34" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="32">
-        <v>4</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="35">
-        <v>1</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>322</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="35">
-        <v>2</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>355</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="E20" s="35"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="38">
-        <v>1</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="38"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
-        <v>2</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="39"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="38">
-        <v>3</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="38"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="38">
-        <v>4</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="38"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="38">
-        <v>5</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="38">
-        <v>6</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="38">
-        <v>7</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D27" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="E27" s="38"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="38">
-        <v>8</v>
-      </c>
-      <c r="B28" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="38"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
-        <v>9</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D29" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="39"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="38">
-        <v>10</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="E30" s="38"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="38">
-        <v>11</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="38">
-        <v>12</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
-        <v>13</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E33" s="38" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
-        <v>14</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="38">
-        <v>15</v>
-      </c>
-      <c r="B35" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D35" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="38"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="38">
-        <v>16</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" s="38"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
-        <v>17</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="38">
-        <v>18</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>339</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="40">
-        <v>1</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D39" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="40">
-        <v>2</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D40" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="E40" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="40">
-        <v>3</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D41" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="E41" s="40" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="40">
-        <v>4</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="40">
-        <v>5</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>186</v>
-      </c>
-      <c r="E43" s="40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="40">
-        <v>6</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D44" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E44" s="40" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="40">
-        <v>7</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D45" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="40">
-        <v>8</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D46" s="40" t="s">
-        <v>189</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="40">
-        <v>9</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D47" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="40">
-        <v>10</v>
-      </c>
-      <c r="B48" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D48" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="40">
-        <v>11</v>
-      </c>
-      <c r="B49" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D49" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="81" x14ac:dyDescent="0.2">
-      <c r="A50" s="40">
-        <v>12</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="D50" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="44">
-        <v>1</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="D51" s="44" t="s">
-        <v>154</v>
-      </c>
-      <c r="E51" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="44">
-        <v>2</v>
-      </c>
-      <c r="B52" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="45" t="s">
+      <c r="B55" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C55" s="44" t="s">
         <v>334</v>
       </c>
-      <c r="D52" s="44" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="46" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="44">
-        <v>3</v>
-      </c>
-      <c r="B53" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="D53" s="44" t="s">
-        <v>198</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="44">
-        <v>4</v>
-      </c>
-      <c r="B54" s="45" t="s">
-        <v>204</v>
-      </c>
-      <c r="C54" s="45" t="s">
-        <v>334</v>
-      </c>
-      <c r="D54" s="44" t="s">
+      <c r="D55" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="E54" s="44" t="s">
+      <c r="E55" s="43" t="s">
         <v>203</v>
       </c>
     </row>
@@ -8273,12 +8300,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="F1" s="5" t="s">
         <v>26</v>
       </c>
